--- a/datasource/employee_database.xlsx
+++ b/datasource/employee_database.xlsx
@@ -216,10 +216,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1157,7 +1157,7 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -1197,7 +1197,7 @@
       <c r="Y16" s="6"/>
       <c r="Z16" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -1237,7 +1237,7 @@
       <c r="Y17" s="6"/>
       <c r="Z17" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -1277,7 +1277,7 @@
       <c r="Y18" s="6"/>
       <c r="Z18" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -1317,7 +1317,7 @@
       <c r="Y19" s="6"/>
       <c r="Z19" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -1357,7 +1357,7 @@
       <c r="Y20" s="6"/>
       <c r="Z20" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -1397,7 +1397,7 @@
       <c r="Y21" s="6"/>
       <c r="Z21" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -1437,7 +1437,7 @@
       <c r="Y22" s="6"/>
       <c r="Z22" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -1477,7 +1477,7 @@
       <c r="Y23" s="6"/>
       <c r="Z23" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -1517,7 +1517,7 @@
       <c r="Y24" s="6"/>
       <c r="Z24" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="4">
         <v>24</v>
       </c>
